--- a/EE/power_system.xlsx
+++ b/EE/power_system.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evere\Documents\GitHub\StormDrainRobot\ME\EE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evere\Documents\GitHub\StormDrainRobot\EE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39523A0E-E8B3-4D85-BF1E-ADF9497B4BB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F396C5-5850-4D80-9A8B-092ECA4E0628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="18000" windowHeight="9397" xr2:uid="{654665DF-210C-496C-AD7F-CE8AF87E9115}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{654665DF-210C-496C-AD7F-CE8AF87E9115}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts List" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="123">
   <si>
     <t>Battery Nominal Voltage</t>
   </si>
@@ -393,30 +393,19 @@
     <t>Buck Converter Board</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>AM2320</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>https://www.amazon.com/KOOBOOK-AM2320B-Digital-Temperature-Humidity/dp/B07S66RG1S/ref=sr_1_5?crid=1MS3RTA4GIOYX&amp;dchild=1&amp;keywords=am2320+digital+temperature+and+humidity+sensor&amp;qid=1592483020&amp;sprefix=am2320+%2Caps%2C213&amp;sr=8-5</t>
   </si>
   <si>
     <t>CHECK CIRCUIT PYTHON SUPPORT FOR SENSORS</t>
+  </si>
+  <si>
+    <t>AM2320 </t>
+  </si>
+  <si>
+    <t>Alt to teensy</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/DFRobot-DFR0282-Beetle-Arduino-Compatible-Microcontroller/dp/B01B0IQFU4/ref=sr_1_9?dchild=1&amp;keywords=arduino+micro&amp;qid=1592503489&amp;s=electronics&amp;sr=1-9</t>
   </si>
 </sst>
 </file>
@@ -426,7 +415,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,16 +453,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF111111"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF111111"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri "/>
     </font>
   </fonts>
   <fills count="2">
@@ -947,12 +929,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AF47D4-88BF-42D1-8E7D-F306B318297F}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="92" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="28.73046875" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="104" bestFit="1" customWidth="1"/>
@@ -960,7 +942,7 @@
     <col min="4" max="4" width="255.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" s="11" customFormat="1">
       <c r="A1" s="11" t="s">
         <v>107</v>
       </c>
@@ -974,7 +956,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -988,7 +970,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
@@ -1002,7 +984,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -1016,7 +998,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1030,7 +1012,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -1044,19 +1026,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -1070,7 +1052,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -1084,7 +1066,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
@@ -1098,7 +1080,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4">
       <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
@@ -1109,7 +1091,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4">
       <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
@@ -1123,7 +1105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4">
       <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
@@ -1137,7 +1119,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4">
       <c r="A14" s="10" t="s">
         <v>41</v>
       </c>
@@ -1151,7 +1133,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4">
       <c r="A15" s="10" t="s">
         <v>93</v>
       </c>
@@ -1165,7 +1147,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="10" t="s">
         <v>115</v>
       </c>
@@ -1176,9 +1166,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3">
       <c r="B19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1207,9 +1197,10 @@
     <hyperlink ref="D9" r:id="rId20" xr:uid="{CA418673-4D45-41B3-BA0B-609FE605F4FF}"/>
     <hyperlink ref="C17" r:id="rId21" xr:uid="{C0A8D85F-0277-474D-9E5C-9FEB53F92AF6}"/>
     <hyperlink ref="C7" r:id="rId22" xr:uid="{903C7A0B-72B7-4EF5-B23A-3C756B0805DB}"/>
+    <hyperlink ref="C16" r:id="rId23" xr:uid="{B05C06F0-0A75-48DB-9689-D192C406315F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -1219,7 +1210,7 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="40.265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
@@ -1227,7 +1218,7 @@
     <col min="4" max="4" width="13.1328125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9">
       <c r="A1" s="7"/>
       <c r="B1" s="7" t="s">
         <v>54</v>
@@ -1240,7 +1231,7 @@
       </c>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
         <v>44</v>
       </c>
@@ -1263,7 +1254,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
         <v>83</v>
       </c>
@@ -1283,7 +1274,7 @@
         <v>7944.8275862068986</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1301,7 @@
         <v>12.6005</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
         <v>60</v>
       </c>
@@ -1330,7 +1321,7 @@
         <v>2206.8965517241377</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
@@ -1347,7 +1338,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -1355,7 +1346,7 @@
         <v>2.048</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -1363,7 +1354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1372,7 +1363,7 @@
         <v>65536</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -1385,7 +1376,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1393,7 +1384,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1401,7 +1392,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1409,22 +1400,22 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1444,7 +1435,7 @@
       <selection activeCell="A2" sqref="A2:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.265625" bestFit="1" customWidth="1"/>
@@ -1457,7 +1448,7 @@
     <col min="10" max="10" width="74.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>16</v>
       </c>
@@ -1477,7 +1468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -1503,7 +1494,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
@@ -1529,7 +1520,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -1554,7 +1545,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1579,7 +1570,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -1604,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -1629,7 +1620,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -1654,7 +1645,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -1679,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
@@ -1701,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7">
       <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
@@ -1726,7 +1717,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7">
       <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
@@ -1751,27 +1742,27 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7">
       <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7">
       <c r="A14" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7">
       <c r="A15" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7">
       <c r="F18" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1784,7 +1775,7 @@
         <v>6.0601000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1792,7 +1783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1815,7 +1806,7 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.59765625" bestFit="1" customWidth="1"/>
@@ -1825,7 +1816,7 @@
     <col min="7" max="7" width="19.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -1842,7 +1833,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
@@ -1859,7 +1850,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -1873,7 +1864,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1884,7 +1875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -1898,7 +1889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -1915,7 +1906,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -1929,7 +1920,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -1937,7 +1928,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
@@ -1948,7 +1939,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11">
       <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
@@ -1959,7 +1950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11">
       <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
@@ -1982,7 +1973,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11">
       <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
@@ -2017,7 +2008,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11">
       <c r="A14" s="10" t="s">
         <v>41</v>
       </c>
@@ -2040,7 +2031,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11">
       <c r="A15" s="10" t="s">
         <v>93</v>
       </c>
@@ -2058,14 +2049,14 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="28.73046875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4">
       <c r="B1" t="s">
         <v>42</v>
       </c>
@@ -2076,7 +2067,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4">
       <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
@@ -2087,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4">
       <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
@@ -2095,7 +2086,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -2103,7 +2094,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
@@ -2111,7 +2102,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4">
       <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
@@ -2119,7 +2110,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4">
       <c r="A7" s="10" t="s">
         <v>13</v>
       </c>
@@ -2127,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -2135,7 +2126,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -2143,7 +2134,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4">
       <c r="A10" s="10" t="s">
         <v>4</v>
       </c>
@@ -2151,7 +2142,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4">
       <c r="A11" s="10" t="s">
         <v>3</v>
       </c>
@@ -2159,7 +2150,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4">
       <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
@@ -2167,7 +2158,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4">
       <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
@@ -2178,7 +2169,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4">
       <c r="A14" s="10" t="s">
         <v>41</v>
       </c>
@@ -2186,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4">
       <c r="A15" s="10" t="s">
         <v>93</v>
       </c>
